--- a/TestCase_Skripsi.xlsx
+++ b/TestCase_Skripsi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AmirFile\Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AmirFile\docs-skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5252836B-9D74-45EC-BA61-4377B812515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F018202-2CE8-463E-9ABC-A55C04E2B944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{6800F33E-CCEB-463B-8353-183EC3CCAEC2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="10" activeTab="10" xr2:uid="{6800F33E-CCEB-463B-8353-183EC3CCAEC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Locomotion" sheetId="1" r:id="rId1"/>
@@ -1521,7 +1521,7 @@
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1595,7 @@
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473A49EA-8C8B-4FA6-BC5C-40C0B8F4CFF5}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,7 +1682,7 @@
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE5E6B0-B4F2-47A6-BC44-34029BC4FEAE}">
   <dimension ref="A3:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6014C48A-8BD8-4801-8240-7A62AE34A603}">
   <dimension ref="B3:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68F5C98-3862-439D-9377-DBB2FCE8D15E}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF77A30-8230-4E8E-9256-E61707CF55C0}">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,7 +2556,7 @@
   <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,20 +2810,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fb72890c-59c2-400c-b002-aa96e73c071d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fb72890c-59c2-400c-b002-aa96e73c071d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2845,14 +2845,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AC5F843-5967-4D66-8A9A-FA96CD12EE1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A48191A6-78BC-4B23-830E-156783AD1653}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="fb72890c-59c2-400c-b002-aa96e73c071d"/>
@@ -2866,4 +2858,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AC5F843-5967-4D66-8A9A-FA96CD12EE1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>